--- a/clean_data.xlsx
+++ b/clean_data.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Model </t>
+          <t>Model</t>
         </is>
       </c>
     </row>
